--- a/Turma Maio 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
+++ b/Turma Maio 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="4" r:id="rId1"/>
-    <sheet name="Estoque RESOLVIDO" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="Tabelas" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelas" sheetId="2" r:id="rId2"/>
+    <sheet name="Exemplo 1" sheetId="5" r:id="rId3"/>
+    <sheet name="Exemplo 2" sheetId="6" r:id="rId4"/>
+    <sheet name="Exemplo 3" sheetId="7" r:id="rId5"/>
+    <sheet name="Estoque RESOLVIDO" sheetId="1" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Produto</t>
   </si>
@@ -181,6 +184,33 @@
   </si>
   <si>
     <t>BCBSD1-007</t>
+  </si>
+  <si>
+    <t>sorocaba</t>
+  </si>
+  <si>
+    <t>Márcio Roberto Rosa</t>
+  </si>
+  <si>
+    <t>marcio roberto</t>
+  </si>
+  <si>
+    <t>ana eliza</t>
+  </si>
+  <si>
+    <t>eronildo junior</t>
+  </si>
+  <si>
+    <t>katia moraes</t>
+  </si>
+  <si>
+    <t>andricelia carvalho</t>
+  </si>
+  <si>
+    <t>gisele oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     marcio     </t>
   </si>
 </sst>
 </file>
@@ -698,7 +728,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +763,18 @@
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="C2" t="str">
+        <f>VLOOKUP(LEFT(B2,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IF(MID(B2,2,3)="CBS","SIM","")</f>
+        <v>SIM</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(MID(B2,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -742,7 +783,18 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" t="str">
+        <f>VLOOKUP(LEFT(B3,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D13" si="0">IF(MID(B3,2,3)="CBS","SIM","")</f>
+        <v>SIM</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(MID(B3,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -751,7 +803,18 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" t="str">
+        <f>VLOOKUP(LEFT(B4,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Chocolate</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(MID(B4,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Martins e Filhos</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -760,7 +823,18 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" t="str">
+        <f>VLOOKUP(LEFT(B5,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Doces</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(MID(B5,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -769,7 +843,18 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" t="str">
+        <f>VLOOKUP(LEFT(B6,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SIM</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(MID(B6,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -778,7 +863,18 @@
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" t="str">
+        <f>VLOOKUP(LEFT(B7,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(MID(B7,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -787,7 +883,18 @@
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="C8" t="str">
+        <f>VLOOKUP(LEFT(B8,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Biscoitos e Bolachas</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SIM</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(MID(B8,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -796,7 +903,18 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="C9" t="str">
+        <f>VLOOKUP(LEFT(B9,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SIM</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(MID(B9,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -805,7 +923,18 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="C10" t="str">
+        <f>VLOOKUP(LEFT(B10,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Chocolate</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(MID(B10,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Martins e Filhos</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -814,7 +943,18 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="C11" t="str">
+        <f>VLOOKUP(LEFT(B11,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Doces</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(MID(B11,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Rápido do Brasil</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -823,7 +963,18 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="C12" t="str">
+        <f>VLOOKUP(LEFT(B12,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SIM</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(MID(B12,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -832,18 +983,317 @@
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="C13" t="str">
+        <f>VLOOKUP(LEFT(B13,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(MID(B13,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <v>Pedras Azuis</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="str">
+        <f>RIGHT(A1,3)</f>
+        <v>aba</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>LEFT(A1,4)</f>
+        <v>soro</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>LEN(A1)</f>
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f>MID(A1,4,3)</f>
+        <v>oca</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="str">
+        <f>LEFT(A1,6)</f>
+        <v>Márcio</v>
+      </c>
+      <c r="C1" t="str">
+        <f>MID(A1,8,7)</f>
+        <v>Roberto</v>
+      </c>
+      <c r="D1" t="str">
+        <f>RIGHT(A1,4)</f>
+        <v>Rosa</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TRIM(MID(A1,FIND(" ",A1,1),15))</f>
+        <v>roberto</v>
+      </c>
+      <c r="C1">
+        <f>FIND(" ",A1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B6" si="0">TRIM(MID(A2,FIND(" ",A2,1),15))</f>
+        <v>eliza</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C6" si="1">FIND(" ",A2,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>junior</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>moraes</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>carvalho</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>oliveira</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="str">
+        <f>TRIM(A23)</f>
+        <v>marcio</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1019,111 +1469,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B6">
-    <sortCondition ref="A2:A6"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Turma Maio 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
+++ b/Turma Maio 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,15 +764,15 @@
         <v>28</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(LEFT(B2,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B2,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Alimentação básica</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>IF(MID(B2,2,3)="CBS","SIM","")</f>
-        <v>SIM</v>
+        <f>IF(MID(B2,2,3)="cbs","sim","")</f>
+        <v>sim</v>
       </c>
       <c r="E2" t="str">
-        <f>VLOOKUP(MID(B2,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B2,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Pedras Azuis</v>
       </c>
     </row>
@@ -784,15 +784,15 @@
         <v>30</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(LEFT(B3,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B3,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Alimentação básica</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D13" si="0">IF(MID(B3,2,3)="CBS","SIM","")</f>
-        <v>SIM</v>
+        <f t="shared" ref="D3:D13" si="0">IF(MID(B3,2,3)="cbs","sim","")</f>
+        <v>sim</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(MID(B3,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B3,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Rápido do Brasil</v>
       </c>
     </row>
@@ -804,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(LEFT(B4,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B4,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Chocolate</v>
       </c>
       <c r="D4" s="2" t="str">
@@ -812,7 +812,7 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(MID(B4,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B4,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Martins e Filhos</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(LEFT(B5,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B5,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Doces</v>
       </c>
       <c r="D5" s="2" t="str">
@@ -832,7 +832,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(MID(B5,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B5,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Rápido do Brasil</v>
       </c>
     </row>
@@ -844,15 +844,15 @@
         <v>36</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(LEFT(B6,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B6,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Limpeza</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SIM</v>
+        <v>sim</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(MID(B6,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B6,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Pedras Azuis</v>
       </c>
     </row>
@@ -864,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(LEFT(B7,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B7,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Limpeza</v>
       </c>
       <c r="D7" s="2" t="str">
@@ -872,7 +872,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(MID(B7,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B7,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Pedras Azuis</v>
       </c>
     </row>
@@ -884,15 +884,15 @@
         <v>41</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(LEFT(B8,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B8,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Biscoitos e Bolachas</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SIM</v>
+        <v>sim</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(MID(B8,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B8,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Rápido do Brasil</v>
       </c>
     </row>
@@ -904,15 +904,15 @@
         <v>30</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(LEFT(B9,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B9,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Alimentação básica</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SIM</v>
+        <v>sim</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(MID(B9,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B9,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Rápido do Brasil</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(LEFT(B10,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B10,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Chocolate</v>
       </c>
       <c r="D10" s="2" t="str">
@@ -932,7 +932,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(MID(B10,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B10,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Martins e Filhos</v>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(LEFT(B11,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B11,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Doces</v>
       </c>
       <c r="D11" s="2" t="str">
@@ -952,7 +952,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(MID(B11,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B11,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Rápido do Brasil</v>
       </c>
     </row>
@@ -964,15 +964,15 @@
         <v>36</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(LEFT(B12,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B12,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Limpeza</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SIM</v>
+        <v>sim</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(MID(B12,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B12,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Pedras Azuis</v>
       </c>
     </row>
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(LEFT(B13,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(B13,1),Tabelas!$A$2:$B$6,2,0)</f>
         <v>Limpeza</v>
       </c>
       <c r="D13" s="2" t="str">
@@ -992,7 +992,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(MID(B13,5,2),Tabelas!$D$2:$E$6,2,FALSE)</f>
+        <f>VLOOKUP(MID(B13,5,2),Tabelas!$D$2:$E$6,2,0)</f>
         <v>Pedras Azuis</v>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
